--- a/biology/Botanique/Uvaria_chamae/Uvaria_chamae.xlsx
+++ b/biology/Botanique/Uvaria_chamae/Uvaria_chamae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uvaria chamae est un arbuste persistant du genre paléotropical Uvaria, présent en Afrique tropicale, du Sénégal au Cameroun et au Congo[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uvaria chamae est un arbuste persistant du genre paléotropical Uvaria, présent en Afrique tropicale, du Sénégal au Cameroun et au Congo.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stature
-L’arbuste peut atteindre 2 mètres de hauteur[1].
+L’arbuste peut atteindre 2 mètres de hauteur.
 Bois et écorce
-L’écorce est lisse, grise à noirâtre, à tranche jaune-brun. Les rameaux pubescents et lenticellés présentent des poils étoilés[2].
+L’écorce est lisse, grise à noirâtre, à tranche jaune-brun. Les rameaux pubescents et lenticellés présentent des poils étoilés.
 Feuilles
-Les feuilles à base obtuse, sont ovales à elliptiques, et font 6-15 cm de long, et 2,5-6,5 cm de large[1].
+Les feuilles à base obtuse, sont ovales à elliptiques, et font 6-15 cm de long, et 2,5-6,5 cm de large.
 Fleurs et fruits
-La floraison se produit pendant la saison des pluies [2]. Les fleurs, de couleur jaune verdâtre, sont solitaires, ou en paires, et axillaires, avec un diamètre de 25-30 mm. Les fruits font 20-40 mm de longueur, et 15 mm de diamètre[1].</t>
+La floraison se produit pendant la saison des pluies . Les fleurs, de couleur jaune verdâtre, sont solitaires, ou en paires, et axillaires, avec un diamètre de 25-30 mm. Les fruits font 20-40 mm de longueur, et 15 mm de diamètre.</t>
         </is>
       </c>
     </row>
@@ -548,14 +562,16 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Usages médicaux recueillis (propriétés chimiques non vérifiées)
-La plantes est utilisée contre les saignements et les hémorragies. Les racines auraient des propriétés fébrifuges, astringentes, purgatives, vermifuges. L’écorce permettrait de lutter contre la dysenterie, les fleurs contre l’ophtalmie et la fièvre jaune notamment[2].
+La plantes est utilisée contre les saignements et les hémorragies. Les racines auraient des propriétés fébrifuges, astringentes, purgatives, vermifuges. L’écorce permettrait de lutter contre la dysenterie, les fleurs contre l’ophtalmie et la fièvre jaune notamment.
 Usages alimentaires et culinaires
-La pulpe du fruit est comestible[2].
+La pulpe du fruit est comestible.
 Usages domestiques, artisanaux et industriels
-Le bois permet la fabrication de piquets et poteaux de construction, et sert de bois de feu ou est converti en charbon[2].</t>
+Le bois permet la fabrication de piquets et poteaux de construction, et sert de bois de feu ou est converti en charbon.</t>
         </is>
       </c>
     </row>
